--- a/Homepage/Versandkosten.xlsx
+++ b/Homepage/Versandkosten.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28060" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Versand" sheetId="1" r:id="rId1"/>
     <sheet name="Inern. Großbrief" sheetId="2" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="111">
   <si>
     <t>Land</t>
   </si>
@@ -335,6 +336,24 @@
   </si>
   <si>
     <t>* Umsatzsteuerfrei</t>
+  </si>
+  <si>
+    <t>Versandkosten</t>
+  </si>
+  <si>
+    <t>Laufzeit</t>
+  </si>
+  <si>
+    <t>DHL Paket</t>
+  </si>
+  <si>
+    <t>Einschreiben</t>
+  </si>
+  <si>
+    <t>1-2 Tage</t>
+  </si>
+  <si>
+    <t>Laufzeit (Tage)</t>
   </si>
 </sst>
 </file>
@@ -344,7 +363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,13 +408,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAC1223"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -425,7 +462,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -442,8 +479,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -479,20 +536,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="36">
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Titel" xfId="3" builtinId="15"/>
@@ -892,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1847,6 +1938,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1980,4 +2072,736 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20">
+        <v>4.95</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="20">
+        <v>11.95</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="20">
+        <v>23.95</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="20">
+        <v>6.95</v>
+      </c>
+      <c r="F35" s="23">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="20">
+        <v>23.95</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="20">
+        <v>6.95</v>
+      </c>
+      <c r="F36" s="23">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="20">
+        <v>23.95</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="20">
+        <v>6.95</v>
+      </c>
+      <c r="F37" s="23">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="20">
+        <v>23.95</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="20">
+        <v>6.95</v>
+      </c>
+      <c r="F38" s="23">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="20">
+        <v>23.95</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="20">
+        <v>6.95</v>
+      </c>
+      <c r="F39" s="23">
+        <v>6.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>